--- a/data/raw/RiskClassification_Data_Endpoints_V2.xlsx
+++ b/data/raw/RiskClassification_Data_Endpoints_V2.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft2875721-my.sharepoint.com/personal/monica_teejlab_com/Documents/TeejLab/Partners and Projects/UBC/MDS/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{C955FDF2-95DD-4CA4-98D2-C04E79ED5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B907686F-E161-4562-9F2C-8C063581BFDA}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{C955FDF2-95DD-4CA4-98D2-C04E79ED5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CB1AE3-8F27-45EB-993D-925008F07F0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal" sheetId="2" r:id="rId1"/>
     <sheet name="Core_Endpoint" sheetId="1" r:id="rId2"/>
+    <sheet name="RiskRules" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Core_Endpoint!$A$1:$S$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Core_Endpoint!$A$1:$S$113</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="638">
   <si>
     <t>api_endpoint_id</t>
   </si>
@@ -4256,6 +4257,99 @@
   <si>
     <t>security_test_result (FALSE=Passed; TRUE=Failed)</t>
   </si>
+  <si>
+    <t>api_vendor</t>
+  </si>
+  <si>
+    <t>security_test_result</t>
+  </si>
+  <si>
+    <t>PII</t>
+  </si>
+  <si>
+    <t>FII</t>
+  </si>
+  <si>
+    <t>Risk_Label</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Amaricas</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No Test Performed/Available</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Some Authentication</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>No Authentication</t>
+  </si>
+  <si>
+    <t>Injections</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>Anyone</t>
+  </si>
+  <si>
+    <t>Imminent</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>XML External Enteties</t>
+  </si>
+  <si>
+    <t>All Tests Performed/Available</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
 </sst>
 </file>
 
@@ -4758,7 +4852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4775,6 +4869,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5167,9 +5271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5254,106 +5358,106 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>2052</v>
+        <v>2513</v>
       </c>
       <c r="B2" s="6">
-        <v>762</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="6">
-        <v>276</v>
+        <v>411</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6">
-        <v>10789</v>
+        <v>7629</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
-        <v>2513</v>
+        <v>2578</v>
       </c>
       <c r="B3" s="6">
-        <v>1117</v>
+        <v>1148</v>
       </c>
       <c r="C3" s="6">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6">
-        <v>7629</v>
+        <v>8698</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="B4" s="6">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C4" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6">
-        <v>8698</v>
+        <v>8542</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>31</v>
@@ -5362,434 +5466,434 @@
         <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>2575</v>
+        <v>2516</v>
       </c>
       <c r="B5" s="6">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="6">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6">
-        <v>8542</v>
+        <v>7733</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="232" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>2516</v>
+        <v>2416</v>
       </c>
       <c r="B6" s="6">
-        <v>1119</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="6">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E6" s="6">
-        <v>7733</v>
+        <v>24061</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>2416</v>
+        <v>2515</v>
       </c>
       <c r="B7" s="6">
-        <v>1050</v>
+        <v>1118</v>
       </c>
       <c r="C7" s="6">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6">
-        <v>24061</v>
+        <v>7726</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B8" s="6">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C8" s="6">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6">
-        <v>7726</v>
+        <v>7730</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>2517</v>
+        <v>2574</v>
       </c>
       <c r="B9" s="6">
-        <v>1120</v>
+        <v>1147</v>
       </c>
       <c r="C9" s="6">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>7730</v>
+        <v>8541</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>2574</v>
+        <v>2514</v>
       </c>
       <c r="B10" s="6">
-        <v>1147</v>
+        <v>1118</v>
       </c>
       <c r="C10" s="6">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6">
-        <v>8541</v>
+        <v>7725</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="145" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="B11" s="6">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C11" s="6">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6">
-        <v>7725</v>
+        <v>7739</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="B12" s="6">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C12" s="6">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E12" s="6">
-        <v>7739</v>
+        <v>7755</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>25</v>
@@ -5804,7 +5908,7 @@
         <v>88</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>90</v>
@@ -5812,7 +5916,7 @@
     </row>
     <row r="13" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B13" s="6">
         <v>1124</v>
@@ -5824,7 +5928,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="6">
-        <v>7755</v>
+        <v>7756</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>31</v>
@@ -5833,16 +5937,16 @@
         <v>67</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>104</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>25</v>
@@ -5857,7 +5961,7 @@
         <v>88</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>90</v>
@@ -5865,60 +5969,60 @@
     </row>
     <row r="14" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="B14" s="6">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C14" s="6">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E14" s="6">
-        <v>7756</v>
+        <v>7764</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B15" s="6">
         <v>1125</v>
@@ -5930,7 +6034,7 @@
         <v>114</v>
       </c>
       <c r="E15" s="6">
-        <v>7764</v>
+        <v>8416</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
@@ -5939,20 +6043,26 @@
         <v>113</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O15" s="6" t="s">
         <v>115</v>
       </c>
@@ -5963,7 +6073,7 @@
         <v>117</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>118</v>
@@ -5971,7 +6081,7 @@
     </row>
     <row r="16" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="B16" s="6">
         <v>1125</v>
@@ -5983,7 +6093,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="6">
-        <v>8416</v>
+        <v>7766</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>31</v>
@@ -5992,77 +6102,71 @@
         <v>113</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="B17" s="6">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C17" s="6">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6">
-        <v>7766</v>
+        <v>7868</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B18" s="6">
         <v>1128</v>
@@ -6074,7 +6178,7 @@
         <v>132</v>
       </c>
       <c r="E18" s="6">
-        <v>7868</v>
+        <v>7783</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>31</v>
@@ -6083,16 +6187,13 @@
         <v>131</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>134</v>
+      <c r="J18" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>37</v>
@@ -6107,65 +6208,68 @@
         <v>88</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B19" s="6">
-        <v>1128</v>
+        <v>1099</v>
       </c>
       <c r="C19" s="6">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E19" s="6">
-        <v>7783</v>
+        <v>10193</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="6" t="b">
-        <v>1</v>
+      <c r="J19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B20" s="6">
         <v>1099</v>
@@ -6177,7 +6281,7 @@
         <v>140</v>
       </c>
       <c r="E20" s="6">
-        <v>10193</v>
+        <v>7791</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>31</v>
@@ -6186,16 +6290,16 @@
         <v>139</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>37</v>
@@ -6204,13 +6308,13 @@
         <v>143</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>145</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>147</v>
@@ -6218,7 +6322,7 @@
     </row>
     <row r="21" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B21" s="6">
         <v>1099</v>
@@ -6230,7 +6334,7 @@
         <v>140</v>
       </c>
       <c r="E21" s="6">
-        <v>7791</v>
+        <v>7793</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>31</v>
@@ -6239,16 +6343,16 @@
         <v>139</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>37</v>
@@ -6263,7 +6367,7 @@
         <v>145</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>147</v>
@@ -6271,81 +6375,87 @@
     </row>
     <row r="22" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="B22" s="6">
-        <v>1099</v>
+        <v>1132</v>
       </c>
       <c r="C22" s="6">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E22" s="6">
-        <v>7793</v>
+        <v>26506</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B23" s="6">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C23" s="6">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E23" s="6">
-        <v>26506</v>
+        <v>26050</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>33</v>
@@ -6354,17 +6464,11 @@
         <v>158</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N23" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="O23" s="6" t="s">
         <v>143</v>
       </c>
@@ -6375,7 +6479,7 @@
         <v>162</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>164</v>
@@ -6383,125 +6487,125 @@
     </row>
     <row r="24" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B24" s="6">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C24" s="6">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E24" s="6">
-        <v>26050</v>
+        <v>7980</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>2546</v>
+        <v>2579</v>
       </c>
       <c r="B25" s="6">
-        <v>1134</v>
+        <v>1148</v>
       </c>
       <c r="C25" s="6">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6">
-        <v>7980</v>
+        <v>8554</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="B26" s="6">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C26" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6">
-        <v>8554</v>
+        <v>8556</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>31</v>
@@ -6510,278 +6614,278 @@
         <v>41</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>2581</v>
+        <v>2549</v>
       </c>
       <c r="B27" s="6">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="C27" s="6">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="E27" s="6">
-        <v>8556</v>
+        <v>9099</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B28" s="6">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C28" s="6">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E28" s="6">
-        <v>9099</v>
+        <v>8440</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="145" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>2608</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1166</v>
+      </c>
+      <c r="C29" s="6">
+        <v>451</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="6">
+        <v>9849</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>2551</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1137</v>
-      </c>
-      <c r="C29" s="6">
-        <v>432</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="6">
-        <v>8440</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="P29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2512</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1139</v>
+      </c>
+      <c r="C30" s="6">
+        <v>433</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7619</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="G30" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="J30" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="145" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>2608</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1166</v>
-      </c>
-      <c r="C30" s="6">
-        <v>451</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="6">
-        <v>9849</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="O30" s="6" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <v>2512</v>
+        <v>2564</v>
       </c>
       <c r="B31" s="6">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C31" s="6">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E31" s="6">
-        <v>7619</v>
+        <v>8398</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>37</v>
@@ -6793,10 +6897,10 @@
         <v>211</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>164</v>
@@ -6804,19 +6908,19 @@
     </row>
     <row r="32" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="B32" s="6">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C32" s="6">
         <v>432</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E32" s="6">
-        <v>8398</v>
+        <v>8400</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>31</v>
@@ -6831,45 +6935,45 @@
         <v>33</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>2568</v>
+        <v>2585</v>
       </c>
       <c r="B33" s="6">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="C33" s="6">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E33" s="6">
-        <v>8400</v>
+        <v>9088</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>31</v>
@@ -6878,71 +6982,71 @@
         <v>21</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <v>2585</v>
+        <v>2605</v>
       </c>
       <c r="B34" s="6">
-        <v>1130</v>
+        <v>1162</v>
       </c>
       <c r="C34" s="6">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E34" s="6">
-        <v>9088</v>
+        <v>8898</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="B35" s="6">
         <v>1162</v>
@@ -6954,7 +7058,7 @@
         <v>226</v>
       </c>
       <c r="E35" s="6">
-        <v>8898</v>
+        <v>8960</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>18</v>
@@ -6963,16 +7067,16 @@
         <v>98</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>229</v>
@@ -6987,7 +7091,7 @@
         <v>230</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>147</v>
@@ -6995,275 +7099,275 @@
     </row>
     <row r="36" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <v>2602</v>
+        <v>2583</v>
       </c>
       <c r="B36" s="6">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="C36" s="6">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E36" s="6">
-        <v>8960</v>
+        <v>8704</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>229</v>
+        <v>60</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>2583</v>
+        <v>2596</v>
       </c>
       <c r="B37" s="6">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="C37" s="6">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E37" s="6">
-        <v>8704</v>
+        <v>19770</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="B38" s="6">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C38" s="6">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E38" s="6">
-        <v>19770</v>
+        <v>9264</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
-        <v>2597</v>
+        <v>2571</v>
       </c>
       <c r="B39" s="6">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="C39" s="6">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E39" s="6">
-        <v>9264</v>
+        <v>8533</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
-        <v>2571</v>
+        <v>2607</v>
       </c>
       <c r="B40" s="6">
-        <v>1145</v>
+        <v>1165</v>
       </c>
       <c r="C40" s="6">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E40" s="6">
-        <v>8533</v>
+        <v>26278</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>143</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="217.5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
-        <v>2607</v>
+        <v>2576</v>
       </c>
       <c r="B41" s="6">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="C41" s="6">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
-        <v>26278</v>
+        <v>8596</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>40</v>
@@ -7272,51 +7376,51 @@
         <v>33</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
-        <v>2576</v>
+        <v>2604</v>
       </c>
       <c r="B42" s="6">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="C42" s="6">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="E42" s="6">
-        <v>8596</v>
+        <v>9104</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>40</v>
@@ -7325,86 +7429,83 @@
         <v>33</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
-        <v>2604</v>
+        <v>2598</v>
       </c>
       <c r="B43" s="6">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C43" s="6">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E43" s="6">
-        <v>9104</v>
+        <v>10038</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="B44" s="6">
         <v>1157</v>
@@ -7416,7 +7517,7 @@
         <v>249</v>
       </c>
       <c r="E44" s="6">
-        <v>10038</v>
+        <v>10226</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>31</v>
@@ -7425,13 +7526,16 @@
         <v>248</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>37</v>
@@ -7446,33 +7550,33 @@
         <v>253</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B45" s="6">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C45" s="6">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E45" s="6">
-        <v>10226</v>
+        <v>20064</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>40</v>
@@ -7481,342 +7585,342 @@
         <v>33</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M45" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O45" s="6" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="275.5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>2600</v>
+        <v>2410</v>
       </c>
       <c r="B46" s="6">
-        <v>1159</v>
+        <v>1045</v>
       </c>
       <c r="C46" s="6">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E46" s="6">
-        <v>20064</v>
+        <v>10873</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="K46" s="6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="N46" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="391.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
-        <v>2410</v>
+        <v>2609</v>
       </c>
       <c r="B47" s="6">
-        <v>1045</v>
+        <v>1182</v>
       </c>
       <c r="C47" s="6">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E47" s="6">
-        <v>10873</v>
+        <v>10058</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="N47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>2609</v>
+        <v>2628</v>
       </c>
       <c r="B48" s="6">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C48" s="6">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E48" s="6">
-        <v>10058</v>
+        <v>9342</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>171</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="391.5" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="B49" s="6">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C49" s="6">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E49" s="6">
-        <v>9342</v>
+        <v>10065</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="N49" s="6" t="b">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>161</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
-        <v>2625</v>
+        <v>2631</v>
       </c>
       <c r="B50" s="6">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C50" s="6">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E50" s="6">
-        <v>10065</v>
+        <v>9282</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>161</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="B51" s="6">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C51" s="6">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E51" s="6">
-        <v>9282</v>
+        <v>9351</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="S51" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B52" s="6">
         <v>1179</v>
@@ -7828,7 +7932,7 @@
         <v>314</v>
       </c>
       <c r="E52" s="6">
-        <v>9351</v>
+        <v>9357</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>31</v>
@@ -7837,22 +7941,16 @@
         <v>171</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="L52" s="6" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>211</v>
@@ -7861,15 +7959,15 @@
         <v>79</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="B53" s="6">
         <v>1179</v>
@@ -7881,25 +7979,28 @@
         <v>314</v>
       </c>
       <c r="E53" s="6">
-        <v>9357</v>
+        <v>9360</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>171</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="J53" s="6" t="s">
+        <v>321</v>
+      </c>
       <c r="L53" s="6" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>211</v>
@@ -7908,189 +8009,192 @@
         <v>79</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="203" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
-        <v>2634</v>
+        <v>2641</v>
       </c>
       <c r="B54" s="6">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C54" s="6">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E54" s="6">
-        <v>9360</v>
+        <v>9462</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="203" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="B55" s="6">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="C55" s="6">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E55" s="6">
-        <v>9462</v>
+        <v>9611</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="B56" s="6">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C56" s="6">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E56" s="6">
-        <v>9611</v>
+        <v>9788</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="261" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="B57" s="6">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C57" s="6">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E57" s="6">
-        <v>9788</v>
+        <v>24779</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>40</v>
@@ -8099,86 +8203,86 @@
         <v>33</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="261" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="B58" s="6">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C58" s="6">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E58" s="6">
-        <v>24779</v>
+        <v>9544</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B59" s="6">
         <v>1186</v>
@@ -8190,7 +8294,7 @@
         <v>333</v>
       </c>
       <c r="E59" s="6">
-        <v>9544</v>
+        <v>9546</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>31</v>
@@ -8199,16 +8303,16 @@
         <v>332</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>37</v>
@@ -8217,13 +8321,13 @@
         <v>336</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>79</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="S59" s="6" t="s">
         <v>339</v>
@@ -8231,19 +8335,19 @@
     </row>
     <row r="60" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="B60" s="6">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C60" s="6">
         <v>463</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E60" s="6">
-        <v>9546</v>
+        <v>9550</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>31</v>
@@ -8252,16 +8356,13 @@
         <v>332</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>37</v>
@@ -8276,7 +8377,7 @@
         <v>79</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>339</v>
@@ -8284,7 +8385,7 @@
     </row>
     <row r="61" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="B61" s="6">
         <v>1187</v>
@@ -8296,7 +8397,7 @@
         <v>355</v>
       </c>
       <c r="E61" s="6">
-        <v>9550</v>
+        <v>9971</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>31</v>
@@ -8305,121 +8406,124 @@
         <v>332</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="S61" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
-        <v>2653</v>
+        <v>2601</v>
       </c>
       <c r="B62" s="6">
-        <v>1187</v>
+        <v>1158</v>
       </c>
       <c r="C62" s="6">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E62" s="6">
-        <v>9971</v>
+        <v>26126</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
-        <v>2601</v>
+        <v>2595</v>
       </c>
       <c r="B63" s="6">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C63" s="6">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E63" s="6">
-        <v>26126</v>
+        <v>9583</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
-        <v>2595</v>
+        <v>2657</v>
       </c>
       <c r="B64" s="6">
         <v>1155</v>
@@ -8431,7 +8535,7 @@
         <v>369</v>
       </c>
       <c r="E64" s="6">
-        <v>9583</v>
+        <v>9593</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>31</v>
@@ -8440,16 +8544,16 @@
         <v>98</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>229</v>
@@ -8464,33 +8568,33 @@
         <v>372</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="S64" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
-        <v>2657</v>
+        <v>2685</v>
       </c>
       <c r="B65" s="6">
-        <v>1155</v>
+        <v>1210</v>
       </c>
       <c r="C65" s="6">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E65" s="6">
-        <v>9593</v>
+        <v>10220</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>40</v>
@@ -8499,116 +8603,113 @@
         <v>33</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>211</v>
+        <v>381</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="174" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="B66" s="6">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C66" s="6">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E66" s="6">
-        <v>10220</v>
+        <v>10232</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>79</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="174" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
-        <v>2689</v>
+        <v>2695</v>
       </c>
       <c r="B67" s="6">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="C67" s="6">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E67" s="6">
-        <v>10232</v>
+        <v>23481</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>60</v>
@@ -8617,71 +8718,71 @@
         <v>26</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>387</v>
+        <v>71</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="174" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
-        <v>2695</v>
+        <v>2658</v>
       </c>
       <c r="B68" s="6">
-        <v>1219</v>
+        <v>1155</v>
       </c>
       <c r="C68" s="6">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E68" s="6">
-        <v>23481</v>
+        <v>9589</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>393</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="B69" s="6">
         <v>1155</v>
@@ -8693,22 +8794,25 @@
         <v>369</v>
       </c>
       <c r="E69" s="6">
-        <v>9589</v>
+        <v>9594</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>229</v>
@@ -8723,7 +8827,7 @@
         <v>372</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S69" s="6" t="s">
         <v>164</v>
@@ -8731,7 +8835,7 @@
     </row>
     <row r="70" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B70" s="6">
         <v>1155</v>
@@ -8743,7 +8847,7 @@
         <v>369</v>
       </c>
       <c r="E70" s="6">
-        <v>9594</v>
+        <v>9597</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>31</v>
@@ -8758,10 +8862,10 @@
         <v>33</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>229</v>
@@ -8776,7 +8880,7 @@
         <v>372</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="S70" s="6" t="s">
         <v>164</v>
@@ -8784,25 +8888,25 @@
     </row>
     <row r="71" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="B71" s="6">
-        <v>1155</v>
+        <v>1190</v>
       </c>
       <c r="C71" s="6">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>369</v>
       </c>
       <c r="E71" s="6">
-        <v>9597</v>
+        <v>9944</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>40</v>
@@ -8811,10 +8915,10 @@
         <v>33</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>229</v>
@@ -8829,7 +8933,7 @@
         <v>372</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="S71" s="6" t="s">
         <v>164</v>
@@ -8837,25 +8941,25 @@
     </row>
     <row r="72" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="B72" s="6">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C72" s="6">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="E72" s="6">
-        <v>9944</v>
+        <v>9844</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>40</v>
@@ -8864,45 +8968,45 @@
         <v>33</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>143</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B73" s="6">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C73" s="6">
         <v>466</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E73" s="6">
-        <v>9844</v>
+        <v>9845</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>31</v>
@@ -8911,39 +9015,18 @@
         <v>41</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P73" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>147</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B74" s="6">
         <v>1192</v>
@@ -8955,7 +9038,7 @@
         <v>411</v>
       </c>
       <c r="E74" s="6">
-        <v>9845</v>
+        <v>9848</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>31</v>
@@ -8964,430 +9047,451 @@
         <v>41</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="377" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B75" s="6">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C75" s="6">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E75" s="6">
-        <v>9848</v>
+        <v>9856</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>145</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="377" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="232" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B76" s="6">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C76" s="6">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E76" s="6">
-        <v>9856</v>
+        <v>9884</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>422</v>
+        <v>61</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="232" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="B77" s="6">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C77" s="6">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E77" s="6">
-        <v>9884</v>
+        <v>9886</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>429</v>
+        <v>87</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>430</v>
+        <v>88</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B78" s="6">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C78" s="6">
         <v>469</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E78" s="6">
-        <v>9886</v>
+        <v>9890</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="304.5" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="B79" s="6">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C79" s="6">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E79" s="6">
-        <v>9890</v>
+        <v>9893</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B80" s="6">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C80" s="6">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E80" s="6">
-        <v>9893</v>
+        <v>9931</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="S80" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="290" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
-        <v>2671</v>
+        <v>2686</v>
       </c>
       <c r="B81" s="6">
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="C81" s="6">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E81" s="6">
-        <v>9931</v>
+        <v>10131</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="290" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
-        <v>2686</v>
+        <v>2691</v>
       </c>
       <c r="B82" s="6">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="C82" s="6">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E82" s="6">
-        <v>10131</v>
+        <v>10121</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>300</v>
+        <v>461</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>454</v>
+        <v>143</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>455</v>
+        <v>87</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>456</v>
+        <v>88</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
-        <v>2691</v>
+        <v>2698</v>
       </c>
       <c r="B83" s="6">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C83" s="6">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E83" s="6">
-        <v>10121</v>
+        <v>23490</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>31</v>
@@ -9396,16 +9500,13 @@
         <v>113</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L83" s="6" t="s">
         <v>60</v>
@@ -9414,312 +9515,315 @@
         <v>143</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="S83" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="B84" s="6">
-        <v>1213</v>
+        <v>1220</v>
       </c>
       <c r="C84" s="6">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E84" s="6">
-        <v>23490</v>
+        <v>26807</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>466</v>
+        <v>470</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="L84" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
-        <v>2699</v>
+        <v>2672</v>
       </c>
       <c r="B85" s="6">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="C85" s="6">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E85" s="6">
-        <v>26807</v>
+        <v>23477</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>472</v>
+        <v>26</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>88</v>
+        <v>478</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="B86" s="6">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C86" s="6">
-        <v>472</v>
+        <v>295</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E86" s="6">
-        <v>23477</v>
+        <v>10001</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>478</v>
+        <v>88</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
-        <v>2674</v>
+        <v>2687</v>
       </c>
       <c r="B87" s="6">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="C87" s="6">
-        <v>295</v>
+        <v>481</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E87" s="6">
-        <v>10001</v>
+        <v>23596</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q87" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="B88" s="6">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C88" s="6">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E88" s="6">
-        <v>23596</v>
+        <v>10272</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="B89" s="6">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C89" s="6">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E89" s="6">
-        <v>10272</v>
+        <v>23483</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>488</v>
+        <v>40</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="B90" s="6">
         <v>1205</v>
@@ -9731,7 +9835,7 @@
         <v>493</v>
       </c>
       <c r="E90" s="6">
-        <v>23483</v>
+        <v>23482</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>31</v>
@@ -9740,16 +9844,13 @@
         <v>166</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>37</v>
@@ -9764,404 +9865,413 @@
         <v>63</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="203" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
-        <v>2680</v>
+        <v>2718</v>
       </c>
       <c r="B91" s="6">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="C91" s="6">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E91" s="6">
-        <v>23482</v>
+        <v>23330</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L91" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="203" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
-        <v>2718</v>
+        <v>2681</v>
       </c>
       <c r="B92" s="6">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="C92" s="6">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E92" s="6">
-        <v>23330</v>
+        <v>20153</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>21</v>
+        <v>504</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>40</v>
+        <v>503</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>501</v>
+        <v>506</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N92" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>143</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="B93" s="6">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C93" s="6">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E93" s="6">
-        <v>20153</v>
+        <v>10178</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M93" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N93" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="O93" s="6" t="s">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>87</v>
+        <v>514</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="B94" s="6">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="C94" s="6">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E94" s="6">
-        <v>10178</v>
+        <v>10075</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>60</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>514</v>
+        <v>175</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="B95" s="6">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C95" s="6">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E95" s="6">
-        <v>10075</v>
+        <v>10087</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>79</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
-        <v>2692</v>
+        <v>2700</v>
       </c>
       <c r="B96" s="6">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C96" s="6">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E96" s="6">
-        <v>10087</v>
+        <v>26059</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>166</v>
+        <v>526</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>40</v>
+        <v>525</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>71</v>
+        <v>530</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
-        <v>2700</v>
+        <v>2730</v>
       </c>
       <c r="B97" s="6">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="C97" s="6">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E97" s="6">
-        <v>26059</v>
+        <v>19977</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>526</v>
+        <v>248</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>525</v>
+        <v>40</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N97" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>530</v>
+        <v>87</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>531</v>
+        <v>88</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>147</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
-        <v>2730</v>
+        <v>2761</v>
       </c>
       <c r="B98" s="6">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="C98" s="6">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E98" s="6">
-        <v>19977</v>
+        <v>20155</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>40</v>
@@ -10170,160 +10280,154 @@
         <v>33</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>37</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="N98" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>472</v>
+        <v>143</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>87</v>
+        <v>540</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="145" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
-        <v>2761</v>
+        <v>2753</v>
       </c>
       <c r="B99" s="6">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C99" s="6">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E99" s="6">
-        <v>20155</v>
+        <v>11241</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N99" s="6" t="b">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>79</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="145" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="232" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
-        <v>2753</v>
+        <v>2812</v>
       </c>
       <c r="B100" s="6">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="C100" s="6">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E100" s="6">
-        <v>11241</v>
+        <v>26069</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>542</v>
+        <v>40</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>544</v>
+        <v>549</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>545</v>
+        <v>161</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="S100" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="232" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
-        <v>2812</v>
+        <v>2823</v>
       </c>
       <c r="B101" s="6">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C101" s="6">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="E101" s="6">
-        <v>26069</v>
+        <v>27655</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>31</v>
@@ -10332,81 +10436,81 @@
         <v>21</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>40</v>
+        <v>552</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L101" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M101" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N101" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O101" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
-        <v>2823</v>
+        <v>2796</v>
       </c>
       <c r="B102" s="6">
-        <v>1286</v>
+        <v>1239</v>
       </c>
       <c r="C102" s="6">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="E102" s="6">
-        <v>27655</v>
+        <v>22997</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M102" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N102" s="6" t="b">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>26</v>
+        <v>472</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>87</v>
@@ -10415,33 +10519,33 @@
         <v>88</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>244</v>
+        <v>474</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B103" s="6">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="C103" s="6">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E103" s="6">
-        <v>22997</v>
+        <v>23268</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>557</v>
@@ -10450,13 +10554,19 @@
         <v>33</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>25</v>
+        <v>229</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N103" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>472</v>
@@ -10468,7 +10578,7 @@
         <v>88</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="S103" s="6" t="s">
         <v>474</v>
@@ -10476,7 +10586,7 @@
     </row>
     <row r="104" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
-        <v>2795</v>
+        <v>2754</v>
       </c>
       <c r="B104" s="6">
         <v>1256</v>
@@ -10488,7 +10598,7 @@
         <v>543</v>
       </c>
       <c r="E104" s="6">
-        <v>23268</v>
+        <v>23338</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>31</v>
@@ -10497,122 +10607,116 @@
         <v>166</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="N104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>472</v>
+        <v>26</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>88</v>
+        <v>568</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="S104" s="6" t="s">
-        <v>474</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
-        <v>2754</v>
+        <v>2834</v>
       </c>
       <c r="B105" s="6">
-        <v>1256</v>
+        <v>1287</v>
       </c>
       <c r="C105" s="6">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>543</v>
+        <v>209</v>
       </c>
       <c r="E105" s="6">
-        <v>23338</v>
+        <v>26502</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>166</v>
+        <v>570</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N105" s="6" t="b">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>568</v>
+        <v>88</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
-        <v>2834</v>
+        <v>2702</v>
       </c>
       <c r="B106" s="6">
-        <v>1287</v>
+        <v>1224</v>
       </c>
       <c r="C106" s="6">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>209</v>
+        <v>573</v>
       </c>
       <c r="E106" s="6">
-        <v>26502</v>
+        <v>27368</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>570</v>
+        <v>21</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>40</v>
@@ -10621,51 +10725,51 @@
         <v>33</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="S106" s="6" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
-        <v>2702</v>
+        <v>2821</v>
       </c>
       <c r="B107" s="6">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="C107" s="6">
-        <v>492</v>
+        <v>573</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E107" s="6">
-        <v>27368</v>
+        <v>24901</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>40</v>
@@ -10674,10 +10778,7 @@
         <v>33</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L107" s="6" t="s">
         <v>37</v>
@@ -10686,33 +10787,33 @@
         <v>143</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
-        <v>2821</v>
+        <v>2743</v>
       </c>
       <c r="B108" s="6">
-        <v>1285</v>
+        <v>1248</v>
       </c>
       <c r="C108" s="6">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E108" s="6">
-        <v>24901</v>
+        <v>26154</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>31</v>
@@ -10721,122 +10822,131 @@
         <v>171</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>40</v>
+        <v>579</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="304.5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
-        <v>2743</v>
+        <v>2677</v>
       </c>
       <c r="B109" s="6">
-        <v>1248</v>
+        <v>1203</v>
       </c>
       <c r="C109" s="6">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E109" s="6">
-        <v>26154</v>
+        <v>26913</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>581</v>
+        <v>585</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N109" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Q109" s="6" t="s">
         <v>242</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="261" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
-        <v>2677</v>
+        <v>2836</v>
       </c>
       <c r="B110" s="6">
-        <v>1203</v>
+        <v>1132</v>
       </c>
       <c r="C110" s="6">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>584</v>
+        <v>157</v>
       </c>
       <c r="E110" s="6">
-        <v>26913</v>
+        <v>26896</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>583</v>
+        <v>40</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="N110" s="6" t="b">
         <v>0</v>
@@ -10848,18 +10958,18 @@
         <v>38</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>242</v>
+        <v>591</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="S110" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="261" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="B111" s="6">
         <v>1132</v>
@@ -10871,7 +10981,7 @@
         <v>157</v>
       </c>
       <c r="E111" s="6">
-        <v>26896</v>
+        <v>26897</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>31</v>
@@ -10880,98 +10990,98 @@
         <v>21</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="N111" s="6" t="b">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>591</v>
+        <v>88</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="S111" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="409.5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="261" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
-        <v>2837</v>
+        <v>2830</v>
       </c>
       <c r="B112" s="6">
-        <v>1132</v>
+        <v>1286</v>
       </c>
       <c r="C112" s="6">
-        <v>427</v>
+        <v>574</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>157</v>
+        <v>553</v>
       </c>
       <c r="E112" s="6">
-        <v>26897</v>
+        <v>27238</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>480</v>
+        <v>596</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="M112" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N112" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="O112" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>88</v>
+        <v>591</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="261" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
-        <v>2830</v>
+        <v>2838</v>
       </c>
       <c r="B113" s="6">
         <v>1286</v>
@@ -10983,35 +11093,29 @@
         <v>553</v>
       </c>
       <c r="E113" s="6">
-        <v>27238</v>
+        <v>26980</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M113" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N113" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="O113" s="6" t="s">
         <v>26</v>
       </c>
@@ -11022,67 +11126,2325 @@
         <v>591</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="S113" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="261" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
-        <v>2838</v>
+        <v>2052</v>
       </c>
       <c r="B114" s="6">
-        <v>1286</v>
+        <v>762</v>
       </c>
       <c r="C114" s="6">
-        <v>574</v>
+        <v>276</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>553</v>
+        <v>22</v>
       </c>
       <c r="E114" s="6">
-        <v>26980</v>
+        <v>10789</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>602</v>
+        <v>24</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>591</v>
+        <v>28</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>603</v>
+        <v>29</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE97770F-7185-4EFF-9D91-D218E7D40617}">
+  <dimension ref="A1:I76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{7DFDDFE7-30F8-431B-90A3-80FA091A10A9}">
+      <formula1>"Enterprise, Academia, Government, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{51E7456F-7723-468B-8FFF-A585F3EC51E8}">
+      <formula1>"JWT, Path, Query, Header, Oauth, BasicAuth, Some Authentication, No Authentication"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{0CC72B8F-1139-4B16-A893-ACF1DDA33603}">
+      <formula1>"Injections, Buffer Overflow, Broken Authentication, XML External Enteties, Cross-Site Scripting, No Test Performed/Available, All Tests Performed/Available"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{A3697B03-5117-45E4-86DD-369C35FA6083}">
+      <formula1>"Pass, Fail, N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{CF21965C-09A9-445E-85B3-1E17C7CA3290}">
+      <formula1>"West Europe, Amaricas, Russia, China, Others, Anywhere"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{4B73B722-B101-4FF6-9546-9309AC5EDC11}">
+      <formula1>"Enterprise, Private, Unknown, Anyone"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{11BEB0FF-DD85-4354-9FA8-FA2471B62245}">
+      <formula1>"Imminent, High, Medium, Low, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1048576" xr:uid="{6FCAD4A0-EAB1-4101-B88A-F128854B7717}">
+      <formula1>"Yes, No, N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
